--- a/Input_LiST_Bangladesh_2016.xlsx
+++ b/Input_LiST_Bangladesh_2016.xlsx
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -2007,7 +2007,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="5">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" s="5">
         <v>0.0</v>
@@ -2025,15 +2025,14 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
-      </c>
-      <c r="F5" s="5" t="str">
-        <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.0</v>
       </c>
       <c r="G5" s="5">
         <v>0.0</v>
@@ -2266,15 +2265,15 @@
       </c>
       <c r="C3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.40</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.40</v>
       </c>
       <c r="E3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.40</v>
       </c>
       <c r="F3" s="18">
         <v>0.0</v>

--- a/Input_LiST_Bangladesh_2016.xlsx
+++ b/Input_LiST_Bangladesh_2016.xlsx
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -2025,11 +2025,11 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
       <c r="F5" s="5">
         <v>0.0</v>
@@ -2265,15 +2265,15 @@
       </c>
       <c r="C3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.40</v>
+        <v>0.44</v>
       </c>
       <c r="D3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.40</v>
+        <v>0.44</v>
       </c>
       <c r="E3" s="18" t="str">
         <f>demographics!$B$5</f>
-        <v>0.40</v>
+        <v>0.44</v>
       </c>
       <c r="F3" s="18">
         <v>0.0</v>

--- a/Input_LiST_Bangladesh_2016.xlsx
+++ b/Input_LiST_Bangladesh_2016.xlsx
@@ -9,12 +9,12 @@
     <sheet state="visible" name="mortality" sheetId="4" r:id="rId6"/>
     <sheet state="visible" name="distributions" sheetId="5" r:id="rId7"/>
     <sheet state="visible" name="birth outcome distribution" sheetId="6" r:id="rId8"/>
-    <sheet state="visible" name="RRStunting" sheetId="7" r:id="rId9"/>
-    <sheet state="visible" name="RRWasting" sheetId="8" r:id="rId10"/>
-    <sheet state="visible" name="RRBreastfeeding" sheetId="9" r:id="rId11"/>
-    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="10" r:id="rId12"/>
-    <sheet state="visible" name="OR stunting progression" sheetId="11" r:id="rId13"/>
-    <sheet state="visible" name="Incidence of conditions" sheetId="12" r:id="rId14"/>
+    <sheet state="visible" name="Incidence of conditions" sheetId="7" r:id="rId9"/>
+    <sheet state="visible" name="RRStunting" sheetId="8" r:id="rId10"/>
+    <sheet state="visible" name="RRWasting" sheetId="9" r:id="rId11"/>
+    <sheet state="visible" name="RRBreastfeeding" sheetId="10" r:id="rId12"/>
+    <sheet state="visible" name="RR Death by Birth Outcome" sheetId="11" r:id="rId13"/>
+    <sheet state="visible" name="OR stunting progression" sheetId="12" r:id="rId14"/>
     <sheet state="visible" name="RR diarrhoea" sheetId="13" r:id="rId15"/>
     <sheet state="visible" name="OR stunting by condition" sheetId="14" r:id="rId16"/>
     <sheet state="visible" name="OR stunting by birth outcome" sheetId="15" r:id="rId17"/>
@@ -219,6 +219,9 @@
     <t>Term SGA</t>
   </si>
   <si>
+    <t>Condition</t>
+  </si>
+  <si>
     <t>Stunting Status</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
   </si>
   <si>
     <t>Neonatal congenital anomalies</t>
-  </si>
-  <si>
-    <t>Condition</t>
   </si>
   <si>
     <t>Breastfeeding Category</t>
@@ -311,7 +311,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -325,6 +325,10 @@
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -380,8 +384,8 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
@@ -389,10 +393,10 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -402,10 +406,10 @@
       <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -563,7 +567,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>0.44</v>
+        <v>0.4365</v>
       </c>
     </row>
     <row r="6">
@@ -575,6 +579,625 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="2" width="24.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>1.0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D18">
+        <v>1.0</v>
+      </c>
+      <c r="E18">
+        <v>1.0</v>
+      </c>
+      <c r="F18">
+        <v>1.0</v>
+      </c>
+      <c r="G18">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.26</v>
+      </c>
+      <c r="E19">
+        <v>1.0</v>
+      </c>
+      <c r="F19">
+        <v>1.0</v>
+      </c>
+      <c r="G19">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1.83</v>
+      </c>
+      <c r="E20">
+        <v>1.0</v>
+      </c>
+      <c r="F20">
+        <v>1.0</v>
+      </c>
+      <c r="G20">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10.88</v>
+      </c>
+      <c r="E21">
+        <v>2.1</v>
+      </c>
+      <c r="F21">
+        <v>2.1</v>
+      </c>
+      <c r="G21">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D22">
+        <v>1.0</v>
+      </c>
+      <c r="E22">
+        <v>1.0</v>
+      </c>
+      <c r="F22">
+        <v>1.0</v>
+      </c>
+      <c r="G22">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D23">
+        <v>1.66</v>
+      </c>
+      <c r="E23">
+        <v>1.0</v>
+      </c>
+      <c r="F23">
+        <v>1.0</v>
+      </c>
+      <c r="G23">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <v>1.0</v>
+      </c>
+      <c r="F24">
+        <v>1.0</v>
+      </c>
+      <c r="G24">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D25">
+        <v>14.97</v>
+      </c>
+      <c r="E25">
+        <v>1.92</v>
+      </c>
+      <c r="F25">
+        <v>1.92</v>
+      </c>
+      <c r="G25">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D26">
+        <v>1.0</v>
+      </c>
+      <c r="E26">
+        <v>1.0</v>
+      </c>
+      <c r="F26">
+        <v>1.0</v>
+      </c>
+      <c r="G26">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D27">
+        <v>1.0</v>
+      </c>
+      <c r="E27">
+        <v>1.0</v>
+      </c>
+      <c r="F27">
+        <v>1.0</v>
+      </c>
+      <c r="G27">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D28">
+        <v>1.0</v>
+      </c>
+      <c r="E28">
+        <v>1.0</v>
+      </c>
+      <c r="F28">
+        <v>1.0</v>
+      </c>
+      <c r="G28">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D29">
+        <v>1.0</v>
+      </c>
+      <c r="E29">
+        <v>1.0</v>
+      </c>
+      <c r="F29">
+        <v>1.0</v>
+      </c>
+      <c r="G29">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -590,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
         <v>49</v>
@@ -718,7 +1341,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10">
         <v>1.0</v>
@@ -863,7 +1486,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -896,78 +1519,6 @@
       </c>
       <c r="D2" s="2">
         <v>67.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>0.2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1099,7 +1650,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -1151,7 +1702,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>49</v>
@@ -1705,7 +2256,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2">
-        <v>0.621</v>
+        <v>0.97</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
@@ -1722,7 +2273,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
@@ -1739,7 +2290,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2">
-        <v>0.207</v>
+        <v>0.209</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
@@ -2025,11 +2576,11 @@
       </c>
       <c r="D5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.4365</v>
       </c>
       <c r="E5" s="5" t="str">
         <f>demographics!$B$5</f>
-        <v>0.44</v>
+        <v>0.4365</v>
       </c>
       <c r="F5" s="5">
         <v>0.0</v>
@@ -2236,7 +2787,7 @@
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
@@ -3494,440 +4045,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D2">
-        <v>1.0</v>
-      </c>
-      <c r="E2">
-        <v>1.0</v>
-      </c>
-      <c r="F2">
-        <v>1.0</v>
-      </c>
-      <c r="G2">
-        <v>1.0</v>
+      <c r="B2" s="11">
+        <v>2.43</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2.43</v>
+      </c>
+      <c r="D2" s="11">
+        <v>3.71</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.92</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
-        <v>38</v>
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.0</v>
       </c>
       <c r="C3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D3">
-        <v>1.67</v>
-      </c>
-      <c r="E3">
-        <v>1.67</v>
-      </c>
-      <c r="F3">
-        <v>1.67</v>
-      </c>
-      <c r="G3">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D4">
-        <v>2.38</v>
-      </c>
-      <c r="E4">
-        <v>2.38</v>
-      </c>
-      <c r="F4">
-        <v>2.38</v>
-      </c>
-      <c r="G4">
-        <v>2.38</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D5">
-        <v>6.33</v>
-      </c>
-      <c r="E5">
-        <v>6.33</v>
-      </c>
-      <c r="F5">
-        <v>6.33</v>
-      </c>
-      <c r="G5">
-        <v>6.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D6">
-        <v>1.0</v>
-      </c>
-      <c r="E6">
-        <v>1.0</v>
-      </c>
-      <c r="F6">
-        <v>1.0</v>
-      </c>
-      <c r="G6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D7">
-        <v>1.55</v>
-      </c>
-      <c r="E7">
-        <v>1.55</v>
-      </c>
-      <c r="F7">
-        <v>1.55</v>
-      </c>
-      <c r="G7">
-        <v>1.55</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D8">
-        <v>2.18</v>
-      </c>
-      <c r="E8">
-        <v>2.18</v>
-      </c>
-      <c r="F8">
-        <v>2.18</v>
-      </c>
-      <c r="G8">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D9">
-        <v>6.39</v>
-      </c>
-      <c r="E9">
-        <v>6.39</v>
-      </c>
-      <c r="F9">
-        <v>6.39</v>
-      </c>
-      <c r="G9">
-        <v>6.39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D10">
-        <v>1.0</v>
-      </c>
-      <c r="E10">
-        <v>1.0</v>
-      </c>
-      <c r="F10">
-        <v>1.0</v>
-      </c>
-      <c r="G10">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D11">
-        <v>1.0</v>
-      </c>
-      <c r="E11">
-        <v>1.0</v>
-      </c>
-      <c r="F11">
-        <v>1.0</v>
-      </c>
-      <c r="G11">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D12">
-        <v>2.79</v>
-      </c>
-      <c r="E12">
-        <v>2.79</v>
-      </c>
-      <c r="F12">
-        <v>2.79</v>
-      </c>
-      <c r="G12">
-        <v>2.79</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D13">
-        <v>6.01</v>
-      </c>
-      <c r="E13">
-        <v>6.01</v>
-      </c>
-      <c r="F13">
-        <v>6.01</v>
-      </c>
-      <c r="G13">
-        <v>6.01</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D14">
-        <v>1.0</v>
-      </c>
-      <c r="E14">
-        <v>1.0</v>
-      </c>
-      <c r="F14">
-        <v>1.0</v>
-      </c>
-      <c r="G14">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D15">
-        <v>1.0</v>
-      </c>
-      <c r="E15">
-        <v>1.0</v>
-      </c>
-      <c r="F15">
-        <v>1.0</v>
-      </c>
-      <c r="G15">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D16">
-        <v>1.0</v>
-      </c>
-      <c r="E16">
-        <v>1.0</v>
-      </c>
-      <c r="F16">
-        <v>1.0</v>
-      </c>
-      <c r="G16">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D17">
-        <v>1.0</v>
-      </c>
-      <c r="E17">
-        <v>1.0</v>
-      </c>
-      <c r="F17">
-        <v>1.0</v>
-      </c>
-      <c r="G17">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D18">
-        <v>1.0</v>
-      </c>
-      <c r="E18">
-        <v>1.0</v>
-      </c>
-      <c r="F18">
-        <v>1.0</v>
-      </c>
-      <c r="G18">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D19">
-        <v>1.0</v>
-      </c>
-      <c r="E19">
-        <v>1.0</v>
-      </c>
-      <c r="F19">
-        <v>1.0</v>
-      </c>
-      <c r="G19">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D20">
-        <v>1.86</v>
-      </c>
-      <c r="E20">
-        <v>1.86</v>
-      </c>
-      <c r="F20">
-        <v>1.86</v>
-      </c>
-      <c r="G20">
-        <v>1.86</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D21">
-        <v>3.01</v>
-      </c>
-      <c r="E21">
-        <v>3.01</v>
-      </c>
-      <c r="F21">
-        <v>3.01</v>
-      </c>
-      <c r="G21">
-        <v>3.01</v>
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -3996,16 +4169,16 @@
         <v>1.0</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="E3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="F3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="G3">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="4">
@@ -4016,16 +4189,16 @@
         <v>1.0</v>
       </c>
       <c r="D4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="E4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="F4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
       <c r="G4">
-        <v>3.41</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="5">
@@ -4036,16 +4209,16 @@
         <v>1.0</v>
       </c>
       <c r="D5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="E5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="F5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
       <c r="G5">
-        <v>12.33</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="6">
@@ -4079,16 +4252,16 @@
         <v>1.0</v>
       </c>
       <c r="D7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="E7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="F7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="G7">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="8">
@@ -4099,16 +4272,16 @@
         <v>1.0</v>
       </c>
       <c r="D8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="E8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="F8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
       <c r="G8">
-        <v>4.66</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="9">
@@ -4119,16 +4292,16 @@
         <v>1.0</v>
       </c>
       <c r="D9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="E9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="F9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
       <c r="G9">
-        <v>9.68</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="10">
@@ -4182,16 +4355,16 @@
         <v>1.0</v>
       </c>
       <c r="D12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="E12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="F12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="G12">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="13">
@@ -4202,16 +4375,16 @@
         <v>1.0</v>
       </c>
       <c r="D13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="E13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="F13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
       <c r="G13">
-        <v>9.63</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="14">
@@ -4328,16 +4501,16 @@
         <v>1.0</v>
       </c>
       <c r="D19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="E19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="F19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
       <c r="G19">
-        <v>1.65</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -4348,16 +4521,16 @@
         <v>1.0</v>
       </c>
       <c r="D20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="E20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="F20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
       <c r="G20">
-        <v>2.73</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="21">
@@ -4368,16 +4541,16 @@
         <v>1.0</v>
       </c>
       <c r="D21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="E21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="F21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
       <c r="G21">
-        <v>11.21</v>
+        <v>3.01</v>
       </c>
     </row>
   </sheetData>
@@ -4391,9 +4564,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="2" width="24.29"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
@@ -4420,342 +4590,342 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G2" s="2">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D2">
+        <v>1.0</v>
+      </c>
+      <c r="E2">
+        <v>1.0</v>
+      </c>
+      <c r="F2">
+        <v>1.0</v>
+      </c>
+      <c r="G2">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D3">
+        <v>1.6</v>
+      </c>
+      <c r="E3">
+        <v>1.6</v>
+      </c>
+      <c r="F3">
+        <v>1.6</v>
+      </c>
+      <c r="G3">
+        <v>1.6</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D4">
+        <v>3.41</v>
+      </c>
+      <c r="E4">
+        <v>3.41</v>
+      </c>
+      <c r="F4">
+        <v>3.41</v>
+      </c>
+      <c r="G4">
+        <v>3.41</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D5">
+        <v>12.33</v>
+      </c>
+      <c r="E5">
+        <v>12.33</v>
+      </c>
+      <c r="F5">
+        <v>12.33</v>
+      </c>
+      <c r="G5">
+        <v>12.33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="2">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D6">
+        <v>1.0</v>
+      </c>
+      <c r="E6">
+        <v>1.0</v>
+      </c>
+      <c r="F6">
+        <v>1.0</v>
+      </c>
+      <c r="G6">
         <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D7">
+        <v>1.92</v>
+      </c>
+      <c r="E7">
+        <v>1.92</v>
+      </c>
+      <c r="F7">
+        <v>1.92</v>
+      </c>
+      <c r="G7">
+        <v>1.92</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D8">
+        <v>4.66</v>
+      </c>
+      <c r="E8">
+        <v>4.66</v>
+      </c>
+      <c r="F8">
+        <v>4.66</v>
+      </c>
+      <c r="G8">
+        <v>4.66</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D9">
+        <v>9.68</v>
+      </c>
+      <c r="E9">
+        <v>9.68</v>
+      </c>
+      <c r="F9">
+        <v>9.68</v>
+      </c>
+      <c r="G9">
+        <v>9.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="2">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D10">
+        <v>1.0</v>
+      </c>
+      <c r="E10">
+        <v>1.0</v>
+      </c>
+      <c r="F10">
+        <v>1.0</v>
+      </c>
+      <c r="G10">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D11">
+        <v>1.0</v>
+      </c>
+      <c r="E11">
+        <v>1.0</v>
+      </c>
+      <c r="F11">
+        <v>1.0</v>
+      </c>
+      <c r="G11">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D12">
+        <v>2.58</v>
+      </c>
+      <c r="E12">
+        <v>2.58</v>
+      </c>
+      <c r="F12">
+        <v>2.58</v>
+      </c>
+      <c r="G12">
+        <v>2.58</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>1.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D13">
+        <v>9.63</v>
+      </c>
+      <c r="E13">
+        <v>9.63</v>
+      </c>
+      <c r="F13">
+        <v>9.63</v>
+      </c>
+      <c r="G13">
+        <v>9.63</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14">
-        <v>1.0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G14" s="2">
+        <v>37</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D14">
+        <v>1.0</v>
+      </c>
+      <c r="E14">
+        <v>1.0</v>
+      </c>
+      <c r="F14">
+        <v>1.0</v>
+      </c>
+      <c r="G14">
         <v>1.0</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>1.26</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G15" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D15">
+        <v>1.0</v>
+      </c>
+      <c r="E15">
+        <v>1.0</v>
+      </c>
+      <c r="F15">
+        <v>1.0</v>
+      </c>
+      <c r="G15">
         <v>1.0</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <v>1.83</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D16">
+        <v>1.0</v>
+      </c>
+      <c r="E16">
+        <v>1.0</v>
+      </c>
+      <c r="F16">
+        <v>1.0</v>
+      </c>
+      <c r="G16">
         <v>1.0</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
-        <v>10.88</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="F17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="D17">
+        <v>1.0</v>
+      </c>
+      <c r="E17">
+        <v>1.0</v>
+      </c>
+      <c r="F17">
+        <v>1.0</v>
+      </c>
+      <c r="G17">
         <v>1.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.0</v>
@@ -4775,228 +4945,62 @@
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>1.0</v>
       </c>
-      <c r="D19" s="2">
-        <v>1.26</v>
+      <c r="D19">
+        <v>1.65</v>
       </c>
       <c r="E19">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="F19">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
       <c r="G19">
-        <v>1.0</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>1.0</v>
       </c>
-      <c r="D20" s="2">
-        <v>1.83</v>
+      <c r="D20">
+        <v>2.73</v>
       </c>
       <c r="E20">
-        <v>1.0</v>
+        <v>2.73</v>
       </c>
       <c r="F20">
-        <v>1.0</v>
+        <v>2.73</v>
       </c>
       <c r="G20">
-        <v>1.0</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>1.0</v>
       </c>
-      <c r="D21" s="2">
-        <v>10.88</v>
+      <c r="D21">
+        <v>11.21</v>
       </c>
       <c r="E21">
-        <v>2.1</v>
+        <v>11.21</v>
       </c>
       <c r="F21">
-        <v>2.1</v>
+        <v>11.21</v>
       </c>
       <c r="G21">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D22">
-        <v>1.0</v>
-      </c>
-      <c r="E22">
-        <v>1.0</v>
-      </c>
-      <c r="F22">
-        <v>1.0</v>
-      </c>
-      <c r="G22">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D23">
-        <v>1.66</v>
-      </c>
-      <c r="E23">
-        <v>1.0</v>
-      </c>
-      <c r="F23">
-        <v>1.0</v>
-      </c>
-      <c r="G23">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D24">
-        <v>2.5</v>
-      </c>
-      <c r="E24">
-        <v>1.0</v>
-      </c>
-      <c r="F24">
-        <v>1.0</v>
-      </c>
-      <c r="G24">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D25">
-        <v>14.97</v>
-      </c>
-      <c r="E25">
-        <v>1.92</v>
-      </c>
-      <c r="F25">
-        <v>1.92</v>
-      </c>
-      <c r="G25">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D26">
-        <v>1.0</v>
-      </c>
-      <c r="E26">
-        <v>1.0</v>
-      </c>
-      <c r="F26">
-        <v>1.0</v>
-      </c>
-      <c r="G26">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D27">
-        <v>1.0</v>
-      </c>
-      <c r="E27">
-        <v>1.0</v>
-      </c>
-      <c r="F27">
-        <v>1.0</v>
-      </c>
-      <c r="G27">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D28">
-        <v>1.0</v>
-      </c>
-      <c r="E28">
-        <v>1.0</v>
-      </c>
-      <c r="F28">
-        <v>1.0</v>
-      </c>
-      <c r="G28">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="D29">
-        <v>1.0</v>
-      </c>
-      <c r="E29">
-        <v>1.0</v>
-      </c>
-      <c r="F29">
-        <v>1.0</v>
-      </c>
-      <c r="G29">
-        <v>1.0</v>
+        <v>11.21</v>
       </c>
     </row>
   </sheetData>

--- a/Input_LiST_Bangladesh_2016.xlsx
+++ b/Input_LiST_Bangladesh_2016.xlsx
@@ -2083,122 +2083,113 @@
     </row>
     <row r="2">
       <c r="A2" s="5">
-        <v>2016.0</v>
-      </c>
-      <c r="B2" s="6" t="str">
-        <f>demographics!$B$3</f>
-        <v>3,030,000</v>
+        <v>2017.0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>3010000.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B3" s="6">
-        <v>3010000.0</v>
+        <v>2980000.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B4" s="6">
-        <v>2980000.0</v>
+        <v>2960000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B5" s="6">
-        <v>2960000.0</v>
+        <v>2930000.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>2020.0</v>
+        <v>2021.0</v>
       </c>
       <c r="B6" s="6">
-        <v>2930000.0</v>
+        <v>2900000.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
-        <v>2021.0</v>
+        <v>2022.0</v>
       </c>
       <c r="B7" s="6">
-        <v>2900000.0</v>
+        <v>2870000.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
-        <v>2022.0</v>
+        <v>2023.0</v>
       </c>
       <c r="B8" s="6">
-        <v>2870000.0</v>
+        <v>2840000.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
-        <v>2023.0</v>
+        <v>2024.0</v>
       </c>
       <c r="B9" s="6">
-        <v>2840000.0</v>
+        <v>2810000.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
-        <v>2024.0</v>
+        <v>2025.0</v>
       </c>
       <c r="B10" s="6">
-        <v>2810000.0</v>
+        <v>2780000.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
-        <v>2025.0</v>
+        <v>2026.0</v>
       </c>
       <c r="B11" s="6">
-        <v>2780000.0</v>
+        <v>2740000.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
-        <v>2026.0</v>
+        <v>2027.0</v>
       </c>
       <c r="B12" s="6">
-        <v>2740000.0</v>
+        <v>2710000.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
-        <v>2027.0</v>
+        <v>2028.0</v>
       </c>
       <c r="B13" s="6">
-        <v>2710000.0</v>
+        <v>2670000.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
-        <v>2028.0</v>
+        <v>2029.0</v>
       </c>
       <c r="B14" s="6">
-        <v>2670000.0</v>
+        <v>2640000.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
-        <v>2029.0</v>
+        <v>2030.0</v>
       </c>
       <c r="B15" s="6">
-        <v>2640000.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5">
-        <v>2030.0</v>
-      </c>
-      <c r="B16" s="6">
         <v>2600000.0</v>
       </c>
     </row>
